--- a/raw/necropsy/20250714_r4_GR_USDA-LNs_RT-QuIC.xlsx
+++ b/raw/necropsy/20250714_r4_GR_USDA-LNs_RT-QuIC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gage1\Documents\Work\usda-validation\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\Projects\usda-validation\raw\necropsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17C06BB-8864-4382-B646-6E973FB9D55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8070088A-4BFA-4DCA-BEF7-AC55E1B9B69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E84594D8-2077-4D71-9EB8-355ADD6AD350}"/>
+    <workbookView xWindow="-28905" yWindow="105" windowWidth="14610" windowHeight="15585" xr2:uid="{E84594D8-2077-4D71-9EB8-355ADD6AD350}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="134">
   <si>
     <t>User: USER</t>
   </si>
@@ -1063,12 +1066,18 @@
   <dimension ref="A3:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:M34"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1489,29 +1498,29 @@
       <c r="B27" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>112</v>
+      <c r="C27" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D27" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F27" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G27" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I27" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J27" s="11">
+        <v>2292</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -1525,29 +1534,29 @@
       <c r="B28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>112</v>
+      <c r="C28" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D28" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E28" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G28" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I28" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J28" s="11">
+        <v>2292</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -1560,29 +1569,29 @@
       <c r="B29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="21" t="s">
-        <v>112</v>
+      <c r="C29" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D29" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F29" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H29" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I29" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J29" s="11">
+        <v>2292</v>
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
@@ -1595,29 +1604,29 @@
       <c r="B30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I30" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="21" t="s">
-        <v>112</v>
+      <c r="C30" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D30" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I30" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J30" s="11">
+        <v>2292</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -1630,29 +1639,29 @@
       <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J31" s="21" t="s">
-        <v>112</v>
+      <c r="C31" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D31" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G31" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I31" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J31" s="11">
+        <v>2292</v>
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
@@ -1665,29 +1674,29 @@
       <c r="B32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J32" s="21" t="s">
-        <v>112</v>
+      <c r="C32" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D32" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E32" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G32" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I32" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2292</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
@@ -1700,29 +1709,29 @@
       <c r="B33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>112</v>
+      <c r="C33" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G33" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H33" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I33" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J33" s="11">
+        <v>2292</v>
       </c>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
@@ -1735,29 +1744,29 @@
       <c r="B34" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>112</v>
+      <c r="C34" s="11">
+        <v>1978</v>
+      </c>
+      <c r="D34" s="11">
+        <v>1980</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1981</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2289</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2290</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2295</v>
+      </c>
+      <c r="I34" s="11">
+        <v>2291</v>
+      </c>
+      <c r="J34" s="11">
+        <v>2292</v>
       </c>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
